--- a/src/images/menu.xlsx
+++ b/src/images/menu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jaysnestrobots\src\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F657CE79-7022-41F8-A276-63E4070DD631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC02B348-4DDD-4446-826B-B5EB2E4FEC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49DAF477-5023-4BE9-BB85-D654343C55AD}"/>
+    <workbookView xWindow="300" yWindow="2388" windowWidth="17280" windowHeight="8964" xr2:uid="{49DAF477-5023-4BE9-BB85-D654343C55AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t xml:space="preserve">Jays Nest Item List </t>
   </si>
@@ -66,6 +66,177 @@
   </si>
   <si>
     <t>Hash brown/Sausage: 1 hash brown or 1 sausage. Served in small boat</t>
+  </si>
+  <si>
+    <t>Egg Jay</t>
+  </si>
+  <si>
+    <t>Jays Omelet</t>
+  </si>
+  <si>
+    <t>Burgers (All come on a toasted Kaider Roll)</t>
+  </si>
+  <si>
+    <t>Hamburger: 1 patty, lettuce, tomato</t>
+  </si>
+  <si>
+    <t>Cheeseburger: 1 patty, American cheese, lettuce, tomato</t>
+  </si>
+  <si>
+    <t>Bacon Cheddar Burger: 1 patty, cheddar cheese, bacon, lettuce, tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond Burger: 1 meatless patty, cheddar cheese, lettuce, tomato </t>
+  </si>
+  <si>
+    <t>(For a vegan option request no cheese. Please note we do not have separate cooking equipment.)</t>
+  </si>
+  <si>
+    <t>Sandwiches</t>
+  </si>
+  <si>
+    <t>Grilled Chicken Sandwich: Lettuce, Tomato on toasted Kaiser Roll</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Sandwich: Lettuce, tomato, mayo on a toasted Kaiser roll</t>
+  </si>
+  <si>
+    <t>Buffalo Chicken Sandwich: Lettuce, tomato, ranch on a toasted Kaiser roll</t>
+  </si>
+  <si>
+    <t>Chicken Parmesan: Crispy chicken, marinara, provolone on toasted Texas toast</t>
+  </si>
+  <si>
+    <t>Turkey Pretzel Melt: Deli turkey, cooper cheese, lettuce, tomato, honey mustard on a toasted pretzel roll</t>
+  </si>
+  <si>
+    <t>Tuna Melt: Tuna salad, American cheese, tomato on toasted English muffin</t>
+  </si>
+  <si>
+    <t>BLT: Bacon, lettuce, tomato, mayo on toasted Texas toast, cut diagonally</t>
+  </si>
+  <si>
+    <t>Grilled Cheese: American cheese, cheddar cheese, on Texas toast cut diagonally</t>
+  </si>
+  <si>
+    <t>Grilled Ham &amp; Cheese: American cheese, cheddar cheese, grilled ham on Texas toast, cut diagonally</t>
+  </si>
+  <si>
+    <t>Hamburger Sub: 1 patty, oregano, lettuce, tomato, mayonnaise served on a toasted roll</t>
+  </si>
+  <si>
+    <t>Cheeseburger Sub: 1 patty, American cheese, oregano, lettuce, tomato, mayonnaise served on a toasted roll</t>
+  </si>
+  <si>
+    <t>Steak Sandwiches (All come on toasted sub roll)</t>
+  </si>
+  <si>
+    <t>Beef Cheesesteak: Beef meat, cheddar cheese sauce</t>
+  </si>
+  <si>
+    <t>Beef Buffalo Cheesesteak: Beef meat, American cheese, bleu cheese dressing, hot sauce</t>
+  </si>
+  <si>
+    <t>Chicken Cheesesteak: Chicken meat, cheddar cheese sauce</t>
+  </si>
+  <si>
+    <t>Chicken Ranch Cheesesteak: Chicken meat, provolone, tomato, onion, ranch</t>
+  </si>
+  <si>
+    <t>Chicken Buffalo Cheesesteak: Chicken meat, American cheese, bleu cheese dressing, hot sauce</t>
+  </si>
+  <si>
+    <t>Appetizers</t>
+  </si>
+  <si>
+    <t>Chicken Strips: 4 strips served in a large boat</t>
+  </si>
+  <si>
+    <t>Buffalo Chicken Strips: 4 strips, tossed in hot sauce, served with ranch in a large boat</t>
+  </si>
+  <si>
+    <t>French Fries: 6-8oz's of fries, served in a small boat</t>
+  </si>
+  <si>
+    <t>Curly Fries: 6-8oz’s of fries served in a small boat</t>
+  </si>
+  <si>
+    <t>Cheese Fries: 6-8oz's of fries covered in warm melted cheese sauce</t>
+  </si>
+  <si>
+    <t>Onion Rings: 6-7 rings served in a small boat</t>
+  </si>
+  <si>
+    <t>Mozzarella Sticks: 4 sticks, cup of marinara served in a small boat</t>
+  </si>
+  <si>
+    <t>Pierogies: 4 pierogies, sautéed diced onion, served in a small boat</t>
+  </si>
+  <si>
+    <t>Quesadillas (All come with side of salsa &amp; sour cream)</t>
+  </si>
+  <si>
+    <t>Cheese Quesadilla: White wrap, mozzarella cheese, cheddar cheese</t>
+  </si>
+  <si>
+    <t>Chicken Quesadilla: White wrap, mozzarella cheese, cheddar cheese, chicken</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Quesadilla: White wrap, mozzarella cheese, cheddar cheese, crispy chicken</t>
+  </si>
+  <si>
+    <t>Buffalo Chicken Quesadilla: White Wrap, Mozzarella cheese, cheddar cheese, crispy chicken, drizzled with ranch and buffalo sauce</t>
+  </si>
+  <si>
+    <t>Chicken Fajita Quesadilla: White wrap, mozzarella cheese, cheddar cheese, chicken, fajita vegetable mixture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian Chicken Wrap: White wrap, brush garlic butter on one entire side of wrap, (all on 1/2 of wrap): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marinara Sauce, Mozzarella Cheese and Chicken. Put through bottom of impinge. </t>
+  </si>
+  <si>
+    <t>Roll up into wrap, Brush outside with garlic butter &amp; parmesan cheese. Put through bottom of impinge. Cut in half</t>
+  </si>
+  <si>
+    <t>Flatbreads</t>
+  </si>
+  <si>
+    <t>Cheese: Marinara sauce, mozzarella cheese</t>
+  </si>
+  <si>
+    <t>South Western: Chipotle sauce, cheddar cheese, mozzarella cheese, onions, tomatoes, green peppers, chicken</t>
+  </si>
+  <si>
+    <t>Buffalo Chicken Ranch: Ranch, buffalo sauce, cheddar cheese, onions, tomatoes, crispy chicken</t>
+  </si>
+  <si>
+    <t>Cheeseburger: Tangy tomato sauce, American cheese, burger topping pickles, diced tomatoes</t>
+  </si>
+  <si>
+    <t>BBQ Chicken: BBQ sauce, pepper jack cheese, cheddar cheese, chicken, red onion rings</t>
+  </si>
+  <si>
+    <t>Personal Pan Pizza</t>
+  </si>
+  <si>
+    <t>Pizza Toppings</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Pepperoni</t>
+  </si>
+  <si>
+    <t>Extra Cheese, Green Peppers, Olives, Onions, Jalapenos, tomatoes, lettuce</t>
+  </si>
+  <si>
+    <t>Grilled Chicken, Fried Chicken, Beef</t>
+  </si>
+  <si>
+    <t>Snack Items</t>
   </si>
 </sst>
 </file>
@@ -75,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +256,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -112,9 +304,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -430,29 +625,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B898CDE-E730-4A91-9A77-922EBCFA5A48}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="81.5546875" customWidth="1"/>
+    <col min="2" max="2" width="87.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="1:2" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -504,27 +699,441 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>3.75</v>
       </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>3.5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B63" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B70" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="B79" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/images/menu.xlsx
+++ b/src/images/menu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jaysnestrobots\src\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC02B348-4DDD-4446-826B-B5EB2E4FEC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E4797-67D4-442B-8C65-59A45A1A5D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2388" windowWidth="17280" windowHeight="8964" xr2:uid="{49DAF477-5023-4BE9-BB85-D654343C55AD}"/>
+    <workbookView xWindow="4920" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{49DAF477-5023-4BE9-BB85-D654343C55AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t xml:space="preserve">Jays Nest Item List </t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>Grilled Chicken, Fried Chicken, Beef</t>
-  </si>
-  <si>
-    <t>Snack Items</t>
   </si>
 </sst>
 </file>
@@ -304,12 +301,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -627,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B898CDE-E730-4A91-9A77-922EBCFA5A48}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
@@ -1127,10 +1125,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="B79" s="3" t="s">
-        <v>66</v>
-      </c>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
